--- a/data/clean/Open_2024.xlsx
+++ b/data/clean/Open_2024.xlsx
@@ -2317,11 +2317,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="7" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
+      <c r="A35" s="7" t="n"/>
       <c r="B35" s="5" t="inlineStr">
         <is>
           <t>Hsieh Tsung-Ting</t>
@@ -4986,11 +4982,7 @@
       </c>
     </row>
     <row r="30" ht="22.25" customHeight="1" s="27">
-      <c r="A30" s="7" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
+      <c r="A30" s="7" t="n"/>
       <c r="B30" s="5" t="inlineStr">
         <is>
           <t>Bouchou Yanis</t>
@@ -9439,11 +9431,7 @@
       </c>
     </row>
     <row r="117" ht="22.25" customHeight="1" s="27">
-      <c r="A117" s="7" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
+      <c r="A117" s="7" t="n"/>
       <c r="B117" s="5" t="inlineStr">
         <is>
           <t>Wiendieck Jonah</t>
@@ -9472,11 +9460,7 @@
       <c r="Q117" s="18" t="n"/>
     </row>
     <row r="118" ht="22.25" customHeight="1" s="27">
-      <c r="A118" s="7" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
+      <c r="A118" s="7" t="n"/>
       <c r="B118" s="5" t="inlineStr">
         <is>
           <t>Sahad Mohamed</t>
